--- a/Output1.xlsx
+++ b/Output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56.21 mg/dL</t>
+          <t>56.21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;3.08 mg/dL</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&gt;115.57</t>
+          <t>115.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,18 +498,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Latest Reference Range &amp; Units 02/22/24 09:20 Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 &gt;115.57 (H)</t>
+          <t>Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "56.21 mg/dL",
-  "lambda_flc": "&lt;3.08 mg/dL",
-  "kappa_lambda_ratio": "&gt;115.57",
+  "kappa_flc": "56.21",
+  "lambda_flc": "3.08",
+  "kappa_lambda_ratio": "115.57",
   "date_of_lab": "2024-02-22",
   "evidence_sentences": [
-    "Latest Reference Range &amp; Units 02/22/24 09:20 Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 &gt;115.57 (H)"
+    "Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
   ],
   "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
 }</t>
@@ -519,45 +519,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>2024-03-05_00:00:00.000_IMTX_Conference_Note_91479</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;9.81 mg/dL</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;1.91 mg/dL</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unable to calculate</t>
+          <t>115.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Latest Reference Range &amp; Units 04/08/24 07:15 Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 Unable to calculate.</t>
+          <t>On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "&lt;9.81 mg/dL",
-  "lambda_flc": "&lt;1.91 mg/dL",
-  "kappa_lambda_ratio": "Unable to calculate",
-  "date_of_lab": "2024-04-08",
-  "evidence_sentences": [
-    "Latest Reference Range &amp; Units 04/08/24 07:15 Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 Unable to calculate."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+  "kappa_flc": "16.18",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "115.57",
+  "date_of_lab": "2024-02-22",
+  "evidence_sentences": [
+    "On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57."
+  ],
+  "source_document": "2024-03-05_00:00:00.000_IMTX_Conference_Note_91479"
 }</t>
         </is>
       </c>
@@ -565,45 +565,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+          <t>2024-02-22_00:00:00.000_Progress_Notes_91459</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.08 mg/dL</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/dL</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&gt;0.57</t>
+          <t>1733.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free Light Chains Result Value Ref Range Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22</t>
+          <t>MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "0.08 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": "&gt;0.57",
-  "date_of_lab": "2024-06-13",
-  "evidence_sentences": [
-    "Free Light Chains Result Value Ref Range Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
+  "kappa_flc": "242",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1733.29",
+  "date_of_lab": "2024-01-16",
+  "evidence_sentences": [
+    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
+  ],
+  "source_document": "2024-02-22_00:00:00.000_Progress_Notes_91459"
 }</t>
         </is>
       </c>
@@ -611,47 +611,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>203.94 mg/dL</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/dL</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&gt;1456.71</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free Light Chains Result Value Ref Range Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22
-MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.</t>
+          <t>Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL
+Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL
+Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "203.94 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-01-24",
-  "evidence_sentences": [
-    "Free Light Chains Result Value Ref Range Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22",
-    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
+  "kappa_flc": "0.08",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "0.57",
+  "date_of_lab": "2024-06-13",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
+  ],
+  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
 }</t>
         </is>
       </c>
@@ -659,45 +661,49 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-03-06_00:00:00.000_Progress_Notes_91482</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>203.94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt; 0.15</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&gt;1733.29</t>
+          <t>1456.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-02-XX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.</t>
+          <t>Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL
+Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL
+Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "242",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt;1733.29",
-  "date_of_lab": "2024-01-16",
-  "evidence_sentences": [
-    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-03-06_00:00:00.000_Progress_Notes_91482"
+  "kappa_flc": "203.94",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1456.71",
+  "date_of_lab": "2024-02-XX",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
+  ],
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
 }</t>
         </is>
       </c>
@@ -705,45 +711,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-03-06_00:00:00.000_Progress_Notes_91482</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt; 0.15</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&gt; 115.57</t>
+          <t>1456.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1</t>
+          <t>MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike  2.6 IgG kappa, Kappa free light chain TSTQ.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt; 115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1"
-  ],
-  "source_document": "2024-03-06_00:00:00.000_Progress_Notes_91482"
+  "kappa_flc": "204",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1456.71",
+  "date_of_lab": "2024-01-24",
+  "evidence_sentences": [
+    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike  2.6 IgG kappa, Kappa free light chain TSTQ."
+  ],
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
 }</t>
         </is>
       </c>
@@ -797,45 +803,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-08_00:00:00.000_Progress_Notes_91577</t>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16.18 mg/dL</t>
+          <t>64.9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt; 0.15 mg/dL</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&gt; 115.57</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2019-03-XX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57.</t>
+          <t>At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "16.18 mg/dL",
-  "lambda_flc": "&lt; 0.15 mg/dL",
-  "kappa_lambda_ratio": "&gt; 115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57."
-  ],
-  "source_document": "2024-04-08_00:00:00.000_Progress_Notes_91577"
+  "kappa_flc": "64.9",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2019-03-XX",
+  "evidence_sentences": [
+    "At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10."
+  ],
+  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
 }</t>
         </is>
       </c>
@@ -843,41 +849,45 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-12-27_00:00:00.000_Progress_Notes_91111</t>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>129.54</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>914.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.</t>
+          <t>11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "1.24",
-  "lambda_flc": null,
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2021-12-15",
-  "evidence_sentences": [
-    "Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72."
-  ],
-  "source_document": "2021-12-27_00:00:00.000_Progress_Notes_91111"
+  "kappa_flc": "129.54",
+  "lambda_flc": "15",
+  "kappa_lambda_ratio": "914.29",
+  "date_of_lab": "2023-11-28",
+  "evidence_sentences": [
+    "11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29."
+  ],
+  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
 }</t>
         </is>
       </c>
@@ -885,35 +895,631 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>242.66</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1733.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-01-16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "242.66",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1733.29",
+  "date_of_lab": "2024-01-16",
+  "evidence_sentences": [
+    "1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29."
+  ],
+  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>190.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "65",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190.88",
+  "date_of_lab": "2019-03-24",
+  "evidence_sentences": [
+    "Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2019-10-08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.34",
+  "lambda_flc": "0.92",
+  "kappa_lambda_ratio": "1.46",
+  "date_of_lab": "2019-10-08",
+  "evidence_sentences": [
+    "Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 4/15/2020 showed an increased M spike at 0.6 g/dL as well as increased light chains; KFLC 4.14 mg/dL, LFLC 1.24 mg/dL, K/L 3.34.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "4.14",
+  "lambda_flc": "1.24",
+  "kappa_lambda_ratio": "3.34",
+  "date_of_lab": "2020-04-15",
+  "evidence_sentences": [
+    "Myeloma markers on 4/15/2020 showed an increased M spike at 0.6 g/dL as well as increased light chains; KFLC 4.14 mg/dL, LFLC 1.24 mg/dL, K/L 3.34."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 6/3/2020; M spike 0.9 g/dL, KFLC 5.00 mg/dL, LFLC 1.21 mg/dL, K/L 4.13.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "5.00",
+  "lambda_flc": "1.21",
+  "kappa_lambda_ratio": "4.13",
+  "date_of_lab": "2020-06-03",
+  "evidence_sentences": [
+    "Myeloma markers on 6/3/2020; M spike 0.9 g/dL, KFLC 5.00 mg/dL, LFLC 1.21 mg/dL, K/L 4.13."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Myeloma markers on 6/29/2022 included M spike 0.7 g/dL, KFLC 8.36 mg/dL, LFLC 1.50 mg/dL, K/L 5.57.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "8.36",
+  "lambda_flc": "1.50",
+  "kappa_lambda_ratio": "5.57",
+  "date_of_lab": "2022-06-29",
+  "evidence_sentences": [
+    "Myeloma markers on 6/29/2022 included M spike 0.7 g/dL, KFLC 8.36 mg/dL, LFLC 1.50 mg/dL, K/L 5.57."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>34.88</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>By 11/2/2022 M spike was 2.0 g/dL, KFLC 34.88 mg/dL, LFLC 0.83 mg/dL, K/L 42.02.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "34.88",
+  "lambda_flc": "0.83",
+  "kappa_lambda_ratio": "42.02",
+  "date_of_lab": "2022-11-02",
+  "evidence_sentences": [
+    "By 11/2/2022 M spike was 2.0 g/dL, KFLC 34.88 mg/dL, LFLC 0.83 mg/dL, K/L 42.02."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>After the first cycle his M spike dropped to 1.5 g/dL on 11/29/2022 and he also noticed improvements in his light chains, KFLC 27.56 mg/dL, LFLC 0.76, K/L 36.26.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "27.56",
+  "lambda_flc": "0.76",
+  "kappa_lambda_ratio": "36.26",
+  "date_of_lab": "2022-11-29",
+  "evidence_sentences": [
+    "After the first cycle his M spike dropped to 1.5 g/dL on 11/29/2022 and he also noticed improvements in his light chains, KFLC 27.56 mg/dL, LFLC 0.76, K/L 36.26."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-11-27_00:00:00.000_Progress_Notes_91273</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>201.45</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "201.45",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "1",
+  "date_of_lab": "2023-06-13",
+  "evidence_sentences": [
+    "Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93."
+  ],
+  "source_document": "2023-11-27_00:00:00.000_Progress_Notes_91273"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-01-10_00:00:00.000_Progress_Notes_91135</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>His kappa was 1.24, lambda 0.72, kappa lambda 1.72.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "1.24",
+  "lambda_flc": "0.72",
+  "kappa_lambda_ratio": "1.72",
+  "date_of_lab": "2022-01-10",
+  "evidence_sentences": [
+    "His kappa was 1.24, lambda 0.72, kappa lambda 1.72."
+  ],
+  "source_document": "2022-01-10_00:00:00.000_Progress_Notes_91135"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-02-22_00:00:00.000_Progress_Notes_91240</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-XX-XX</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190
+baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "65",
+  "lambda_flc": "0.34",
+  "kappa_lambda_ratio": "190",
+  "date_of_lab": "2022-XX-XX",
+  "evidence_sentences": [
+    "Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190",
+    "baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190."
+  ],
+  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91240"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-12-01_00:00:00.000_Progress_Notes_91285</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>129.5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "129.5",
+  "lambda_flc": "0.15",
+  "kappa_lambda_ratio": "",
+  "date_of_lab": "2023-11-28",
+  "evidence_sentences": [
+    "Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL."
+  ],
+  "source_document": "2023-12-01_00:00:00.000_Progress_Notes_91285"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-11-13_00:00:00.000_Consults_91085</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>On 09/01/21 Serum kappa was down to 4.48 with a lambda 0.7, kappa lambda of 6.31.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "4.48",
+  "lambda_flc": "0.7",
+  "kappa_lambda_ratio": "6.31",
+  "date_of_lab": "2021-09-01",
+  "evidence_sentences": [
+    "On 09/01/21 Serum kappa was down to 4.48 with a lambda 0.7, kappa lambda of 6.31."
+  ],
+  "source_document": "2021-11-13_00:00:00.000_Consults_91085"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2021-11-13_00:00:00.000_Consults_91085</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>20.78</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>86.58</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-06-XX</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Of note, on 06/21 his kappa had been 20.78 per dL, lambda 0.24 and a kappa lambda of 86.58.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "20.78",
@@ -921,593 +1527,51 @@
   "kappa_lambda_ratio": "86.58",
   "date_of_lab": "2021-06-XX",
   "evidence_sentences": [
-    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
-  ],
-  "source_document": "2021-12-23_00:00:00.000_Progress_Notes_91107"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;1 mg/dL</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Multiple myeloma labs 4/8/24: KFLC 06mg /dL, LFLC &lt;1.$OXWRUEAVWUJWJXBJ_YNWGNFAOZHYQMVHQIONGEXBMWUXLKGMW$$NUUVOZDGUYQIHKVQ_QVZDGLOVFIEPPIRJJOACZYSAYTKZSWFU$ /dL.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "06 mg/dL",
-  "lambda_flc": "&lt;1 mg/dL",
-  "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-04-08",
-  "evidence_sentences": [
-    "Multiple myeloma labs 4/8/24: KFLC 06mg /dL, LFLC &lt;1.$OXWRUEAVWUJWJXBJ_YNWGNFAOZHYQMVHQIONGEXBMWUXLKGMW$$NUUVOZDGUYQIHKVQ_QVZDGLOVFIEPPIRJJOACZYSAYTKZSWFU$ /dL."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-02-10_00:00:00.000_Progress_Notes_91437</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt; 0.15</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "204",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-01-24",
-  "evidence_sentences": [
-    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-02-10_00:00:00.000_Progress_Notes_91437"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2024-03-05_00:00:00.000_IMTX_Conference_Note_91479</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "On 02/22/24, KFLC were 16.18; LFLC &lt;0.15; FLC ratio &gt;115.57."
-  ],
-  "source_document": "2024-03-05_00:00:00.000_IMTX_Conference_Note_91479"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-01-22_00:00:00.000_Progress_Notes_91317</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "242",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;1733.29",
-  "date_of_lab": "2024-01-16",
-  "evidence_sentences": [
-    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-01-22_00:00:00.000_Progress_Notes_91317"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2024-03-11_00:00:00.000_H&amp;P_91495</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>42.66 mg/dL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&gt; 1733.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "42.66 mg/dL",
-  "lambda_flc": null,
-  "kappa_lambda_ratio": "&gt; 1733.29",
-  "date_of_lab": "2024-01-16",
-  "evidence_sentences": [
-    "Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)"
-  ],
-  "source_document": "2024-03-11_00:00:00.000_H&amp;P_91495"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022-01-10_00:00:00.000_Progress_Notes_91134</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20.78 mg/dL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.24 mg/dL</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2021-06-XX</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "20.78 mg/dL",
-  "lambda_flc": "0.24 mg/dL",
-  "kappa_lambda_ratio": "86.58",
-  "date_of_lab": "2021-06-XX",
-  "evidence_sentences": [
-    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
-  ],
-  "source_document": "2022-01-10_00:00:00.000_Progress_Notes_91134"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-12-01_00:00:00.000_Progress_Notes_91285</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>129.5 mg/dL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "129.5 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": null,
-  "date_of_lab": "2023-11-28",
-  "evidence_sentences": [
-    "Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL."
-  ],
-  "source_document": "2023-12-01_00:00:00.000_Progress_Notes_91285"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2021-11-13_00:00:00.000_Consults_91085</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2021-09-01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>On 09/01/21 Serum kappa was down to 4.48 with a lambda 0.7, kappa lambda of 6.31.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "4.48",
-  "lambda_flc": "0.7",
-  "kappa_lambda_ratio": "6.31",
-  "date_of_lab": "2021-09-01",
-  "evidence_sentences": [
-    "On 09/01/21 Serum kappa was down to 4.48 with a lambda 0.7, kappa lambda of 6.31."
+    "Of note, on 06/21 his kappa had been 20.78 per dL, lambda 0.24 and a kappa lambda of 86.58."
   ],
   "source_document": "2021-11-13_00:00:00.000_Consults_91085"
 }</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2024-01-24_00:00:00.000_H&amp;P_91325</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>242 mg/dL</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "242 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": "&gt;1733.29",
-  "date_of_lab": "2024-01-16",
-  "evidence_sentences": [
-    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-01-24_00:00:00.000_H&amp;P_91325"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-02-04_00:00:00.000_Progress_Notes_91403</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "204",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-01-24",
-  "evidence_sentences": [
-    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-02-04_00:00:00.000_Progress_Notes_91403"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-01-10_00:00:00.000_Progress_Notes_91135</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-02-22_00:00:00.000_Progress_Notes_91238</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2022-01-10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>His kappa was 1.24, lambda 0.72, kappa lambda 1.72.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-12-XX</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SPEP 12/20 - IgG 537, IgA 64, IgM 13, M spike 0.1, KFLC 1.24, K/L 1.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "1.24",
-  "lambda_flc": "0.72",
+  "lambda_flc": "",
   "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2022-01-10",
-  "evidence_sentences": [
-    "His kappa was 1.24, lambda 0.72, kappa lambda 1.72."
-  ],
-  "source_document": "2022-01-10_00:00:00.000_Progress_Notes_91135"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1.24 mg/dL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.72 mg/dL</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2021-12-15</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "1.24 mg/dL",
-  "lambda_flc": "0.72 mg/dL",
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2021-12-15",
-  "evidence_sentences": [
-    "12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3"
-  ],
-  "source_document": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2021-12-17_00:00:00.000_Progress_Notes_91098</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>64.9 mg/dL</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2019-03-XX</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99.
-IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "64.9 mg/dL",
-  "lambda_flc": null,
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2019-03-XX",
-  "evidence_sentences": [
-    "At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99.",
-    "IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7."
-  ],
-  "source_document": "2021-12-17_00:00:00.000_Progress_Notes_91098"
+  "date_of_lab": "2022-12-XX",
+  "evidence_sentences": [
+    "SPEP 12/20 - IgG 537, IgA 64, IgM 13, M spike 0.1, KFLC 1.24, K/L 1.72"
+  ],
+  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91238"
 }</t>
         </is>
       </c>

--- a/Output1.xlsx
+++ b/Output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,35 +473,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+  "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+  "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+  "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>203.94</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+  "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>56.21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;3.08</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>&lt;9.81</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;1.91</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Latest Reference Range &amp; Units 04/08/24 07:15   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>{
   "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
@@ -510,194 +662,42 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>203.94</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-02-08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
-  "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2021-12-01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
-  "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2019-03-XX</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
-  "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021-12-27_00:00:00.000_Progress_Notes_91111</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021-06-XX</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
-  "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
-}</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>&gt;115.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
+          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike 1.0; previous monoclonal kappa free light chain not detected.']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>{
-  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
-  "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
 }</t>
         </is>
       </c>
@@ -705,191 +705,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>&lt;0.15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>&gt;0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72.']</t>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
-  "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-06-30_00:00:00.000_Progress_Notes_91265</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
-  "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021-11-13_00:00:00.000_Consults_91085</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2019-03-XX</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.']</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-11-13_00:00:00.000_Consults_91085",
-  "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>&lt;0.06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>{
   "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
-  "content": "g/dL)   - evaluated for stem cell transplant at Twin Cities Community Hospital 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to COVID19 infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000 cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.61 on 09/60/4540   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide maintenance, started 6/10/2022 - 11/2022  9.  KPd, started 11/2022  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  9.  KPd, started 11/2022 - 6/2023  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  11.  PACE, C1 8/10/2023  12.  XRT, 10/19/2023, 800 cGy to the right rib in one fraction  13.  XRT, 11/10/2023, right pelvis and right tibia  14.  Doxorubicin, bortezomib, dexamethasone, 11/13/2023  15.  Isatuximab, carfilzomib, dexamethasone - 12/27/2023 - 1/17/2024 with no **Note De-Identified via Obfuscation** response  16.  Talquetamab bridging, 1/24/2024 - 2/16/2024  17.  XRT to L2-L4 with 8 Gy in 1 fraction on 1/31/2024  18.  Ciltacabtagene autoleucel (Carvykti), D0 = 3/11/2024   - collection of T-cells on 12/7/2023 but out of spec due to low cell count (0.1 x 10(6) cells/kg)   - second apheresis for T-cells on 1/23/2024   - lymphodepleting chemotherapy with cyclophosphamide 300 mg/m2/day and fludarabine 30 mg/m2/day for 3 days, from 3/6/2024 - 3/8/2024   - Cilta-cel infusion, 0.5 to 1 x 10(6) CAR-positive viable T-cells on 3/11/2024   -  Grade 1 CRS, no treatment required   - Post-CAR T course notable for neutropenic fever and non-neutropenic fever, c.diff colitis      RESPONSE TO THERAPY: VGPR (bone marrow negative, MRD pending)    Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa  Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm      ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    Mr. Jayshaun Ara returns to the Vibra Hospital Of Central Dakotas myeloma clinic today for post-CAR T-cell follow-up.  He is now D+106 from Cilta-cel infusion.    He reports that he feels well.  He continues to follow up locally with Dr. Dreama Saa, including having his labs checked weekly.  He has not needed any transfusions and has had no infection.  He has had no diarrhea.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
-  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
+  "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
 }</t>
         </is>
       </c>
